--- a/doc/kvp_03v5_k400.xlsx
+++ b/doc/kvp_03v5_k400.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
   <si>
     <t>Capture CIS Standard Bill Of Materials - Compressed Report</t>
   </si>
   <si>
-    <t>Report Created on Thursday Aug 03 10:58:15 2017</t>
+    <t>Report Created on Tuesday Aug 08 13:48:24 2017</t>
   </si>
   <si>
     <t>Part Number</t>
@@ -49,9 +49,6 @@
     <t>Analogue</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>ACPL-M50L-500E</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>0805</t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>1210-X7R-25V-10uF-10%</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>1210</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>0805-X7R-50V-0.01uF-10%</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>C5,C8,C14,C17,C23,C26</t>
   </si>
   <si>
-    <t>0.01uF</t>
-  </si>
-  <si>
     <t>1206-X7R-50V-0.1uF-10%</t>
   </si>
   <si>
@@ -199,7 +187,19 @@
     <t>Индуктивность</t>
   </si>
   <si>
-    <t>80m</t>
+    <t>09031966921</t>
+  </si>
+  <si>
+    <t>Соединитель, вилка DIN41612-C96MS-C1A-2</t>
+  </si>
+  <si>
+    <t>J?</t>
+  </si>
+  <si>
+    <t>Соединители</t>
+  </si>
+  <si>
+    <t>DIN96</t>
   </si>
   <si>
     <t>PLS-2</t>
@@ -211,9 +211,6 @@
     <t>JP1-JP6,X4,X5</t>
   </si>
   <si>
-    <t>Соединители</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Резисторы</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>0805-100-5%</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>R3,R4,R15,R16,R27,R28,R66</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>0805-5.1-5%</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>R5,R8-R10,R17,R20-R22,R29,R32-R34</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
     <t>1206-240-5%</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
     <t>R6,R7,R18,R19,R30,R31</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>0805-270-5%</t>
   </si>
   <si>
@@ -298,21 +283,15 @@
     <t>R11,R12,R23,R24,R35,R36</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
     <t>0805-6.2K-5%</t>
   </si>
   <si>
-    <t>Чип-резистор 0805 5.6K 5%</t>
+    <t>Чип-резистор 0805 6.2K 5%</t>
   </si>
   <si>
     <t>R37-R40</t>
   </si>
   <si>
-    <t>*6.2k</t>
-  </si>
-  <si>
     <t>2010-240-5%</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>2010</t>
   </si>
   <si>
-    <t>*240</t>
-  </si>
-  <si>
     <t>SQM-5W-5.1K-5%</t>
   </si>
   <si>
@@ -340,9 +316,6 @@
     <t>LEAD-2</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
     <t>2010-300-5%</t>
   </si>
   <si>
@@ -352,9 +325,6 @@
     <t>R43,R45,R53,R55,R61,R63</t>
   </si>
   <si>
-    <t>*300</t>
-  </si>
-  <si>
     <t>0805-2K-5%</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t>R44,R54,R62</t>
   </si>
   <si>
-    <t>2k</t>
-  </si>
-  <si>
     <t>2010-100-5%</t>
   </si>
   <si>
@@ -385,9 +352,6 @@
     <t>R47,R50,R58</t>
   </si>
   <si>
-    <t>*560</t>
-  </si>
-  <si>
     <t>2010-510-5%</t>
   </si>
   <si>
@@ -397,9 +361,6 @@
     <t>R51,R59,R71</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>1206-0</t>
   </si>
   <si>
@@ -485,18 +446,6 @@
   </si>
   <si>
     <t>VD26</t>
-  </si>
-  <si>
-    <t>DIN 3x32 96MR</t>
-  </si>
-  <si>
-    <t>Разъем DIN 3x32 96MR</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>DIN96</t>
   </si>
   <si>
     <t>231-576/001-000</t>
@@ -850,13 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -866,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -877,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,1128 +854,1020 @@
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="1">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
